--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H2">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I2">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J2">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.00708246890529</v>
+        <v>1.831493666666667</v>
       </c>
       <c r="N2">
-        <v>1.00708246890529</v>
+        <v>5.494481</v>
       </c>
       <c r="O2">
-        <v>0.02306768259167205</v>
+        <v>0.04079247358478674</v>
       </c>
       <c r="P2">
-        <v>0.02306768259167205</v>
+        <v>0.04079247358478674</v>
       </c>
       <c r="Q2">
-        <v>1.08038699326323</v>
+        <v>2.874390726812556</v>
       </c>
       <c r="R2">
-        <v>1.08038699326323</v>
+        <v>25.869516541313</v>
       </c>
       <c r="S2">
-        <v>0.005449452117701097</v>
+        <v>0.01199836587509083</v>
       </c>
       <c r="T2">
-        <v>0.005449452117701097</v>
+        <v>0.01199836587509083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H3">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I3">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J3">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.7375497453032</v>
+        <v>36.96800500000001</v>
       </c>
       <c r="N3">
-        <v>36.7375497453032</v>
+        <v>110.904015</v>
       </c>
       <c r="O3">
-        <v>0.8414903077814515</v>
+        <v>0.8233806072555885</v>
       </c>
       <c r="P3">
-        <v>0.8414903077814515</v>
+        <v>0.8233806072555884</v>
       </c>
       <c r="Q3">
-        <v>39.41163920004565</v>
+        <v>58.01848660178834</v>
       </c>
       <c r="R3">
-        <v>39.41163920004565</v>
+        <v>522.1663794160951</v>
       </c>
       <c r="S3">
-        <v>0.198791583053085</v>
+        <v>0.2421824643649804</v>
       </c>
       <c r="T3">
-        <v>0.198791583053085</v>
+        <v>0.2421824643649804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H4">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I4">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J4">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.91308957483977</v>
+        <v>6.098334333333334</v>
       </c>
       <c r="N4">
-        <v>5.91308957483977</v>
+        <v>18.295003</v>
       </c>
       <c r="O4">
-        <v>0.1354420096268765</v>
+        <v>0.1358269191596248</v>
       </c>
       <c r="P4">
-        <v>0.1354420096268765</v>
+        <v>0.1358269191596247</v>
       </c>
       <c r="Q4">
-        <v>6.343497443264585</v>
+        <v>9.570874295535445</v>
       </c>
       <c r="R4">
-        <v>6.343497443264585</v>
+        <v>86.13786865981901</v>
       </c>
       <c r="S4">
-        <v>0.03199648439992579</v>
+        <v>0.03995102352340184</v>
       </c>
       <c r="T4">
-        <v>0.03199648439992579</v>
+        <v>0.03995102352340183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.42153338519682</v>
+        <v>2.444496</v>
       </c>
       <c r="H5">
-        <v>2.42153338519682</v>
+        <v>7.333488</v>
       </c>
       <c r="I5">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613356</v>
       </c>
       <c r="J5">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613355</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.00708246890529</v>
+        <v>1.831493666666667</v>
       </c>
       <c r="N5">
-        <v>1.00708246890529</v>
+        <v>5.494481</v>
       </c>
       <c r="O5">
-        <v>0.02306768259167205</v>
+        <v>0.04079247358478674</v>
       </c>
       <c r="P5">
-        <v>0.02306768259167205</v>
+        <v>0.04079247358478674</v>
       </c>
       <c r="Q5">
-        <v>2.438683820100598</v>
+        <v>4.477078942192001</v>
       </c>
       <c r="R5">
-        <v>2.438683820100598</v>
+        <v>40.29371047972801</v>
       </c>
       <c r="S5">
-        <v>0.01230067632312997</v>
+        <v>0.01868835391758043</v>
       </c>
       <c r="T5">
-        <v>0.01230067632312997</v>
+        <v>0.01868835391758042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.42153338519682</v>
+        <v>2.444496</v>
       </c>
       <c r="H6">
-        <v>2.42153338519682</v>
+        <v>7.333488</v>
       </c>
       <c r="I6">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613356</v>
       </c>
       <c r="J6">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613355</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.7375497453032</v>
+        <v>36.96800500000001</v>
       </c>
       <c r="N6">
-        <v>36.7375497453032</v>
+        <v>110.904015</v>
       </c>
       <c r="O6">
-        <v>0.8414903077814515</v>
+        <v>0.8233806072555885</v>
       </c>
       <c r="P6">
-        <v>0.8414903077814515</v>
+        <v>0.8233806072555884</v>
       </c>
       <c r="Q6">
-        <v>88.96120319858062</v>
+        <v>90.36814035048002</v>
       </c>
       <c r="R6">
-        <v>88.96120319858062</v>
+        <v>813.3132631543201</v>
       </c>
       <c r="S6">
-        <v>0.4487186722782271</v>
+        <v>0.3772173355774</v>
       </c>
       <c r="T6">
-        <v>0.4487186722782271</v>
+        <v>0.3772173355773999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.42153338519682</v>
+        <v>2.444496</v>
       </c>
       <c r="H7">
-        <v>2.42153338519682</v>
+        <v>7.333488</v>
       </c>
       <c r="I7">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613356</v>
       </c>
       <c r="J7">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613355</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.91308957483977</v>
+        <v>6.098334333333334</v>
       </c>
       <c r="N7">
-        <v>5.91308957483977</v>
+        <v>18.295003</v>
       </c>
       <c r="O7">
-        <v>0.1354420096268765</v>
+        <v>0.1358269191596248</v>
       </c>
       <c r="P7">
-        <v>0.1354420096268765</v>
+        <v>0.1358269191596247</v>
       </c>
       <c r="Q7">
-        <v>14.31874381513377</v>
+        <v>14.907353884496</v>
       </c>
       <c r="R7">
-        <v>14.31874381513377</v>
+        <v>134.166184960464</v>
       </c>
       <c r="S7">
-        <v>0.07222348037578491</v>
+        <v>0.06222671276635512</v>
       </c>
       <c r="T7">
-        <v>0.07222348037578491</v>
+        <v>0.0622267127663551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.04682332626218</v>
+        <v>0.165334</v>
       </c>
       <c r="H8">
-        <v>1.04682332626218</v>
+        <v>0.4960020000000001</v>
       </c>
       <c r="I8">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="J8">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00708246890529</v>
+        <v>1.831493666666667</v>
       </c>
       <c r="N8">
-        <v>1.00708246890529</v>
+        <v>5.494481</v>
       </c>
       <c r="O8">
-        <v>0.02306768259167205</v>
+        <v>0.04079247358478674</v>
       </c>
       <c r="P8">
-        <v>0.02306768259167205</v>
+        <v>0.04079247358478674</v>
       </c>
       <c r="Q8">
-        <v>1.054237419919764</v>
+        <v>0.3028081738846667</v>
       </c>
       <c r="R8">
-        <v>1.054237419919764</v>
+        <v>2.725273564962</v>
       </c>
       <c r="S8">
-        <v>0.005317554150840981</v>
+        <v>0.001263990739444549</v>
       </c>
       <c r="T8">
-        <v>0.005317554150840981</v>
+        <v>0.001263990739444549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.04682332626218</v>
+        <v>0.165334</v>
       </c>
       <c r="H9">
-        <v>1.04682332626218</v>
+        <v>0.4960020000000001</v>
       </c>
       <c r="I9">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="J9">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>36.7375497453032</v>
+        <v>36.96800500000001</v>
       </c>
       <c r="N9">
-        <v>36.7375497453032</v>
+        <v>110.904015</v>
       </c>
       <c r="O9">
-        <v>0.8414903077814515</v>
+        <v>0.8233806072555885</v>
       </c>
       <c r="P9">
-        <v>0.8414903077814515</v>
+        <v>0.8233806072555884</v>
       </c>
       <c r="Q9">
-        <v>38.4577240231006</v>
+        <v>6.112068138670002</v>
       </c>
       <c r="R9">
-        <v>38.4577240231006</v>
+        <v>55.00861324803002</v>
       </c>
       <c r="S9">
-        <v>0.1939800524501394</v>
+        <v>0.0255131736604821</v>
       </c>
       <c r="T9">
-        <v>0.1939800524501394</v>
+        <v>0.02551317366048209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.165334</v>
+      </c>
+      <c r="H10">
+        <v>0.4960020000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="J10">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.098334333333334</v>
+      </c>
+      <c r="N10">
+        <v>18.295003</v>
+      </c>
+      <c r="O10">
+        <v>0.1358269191596248</v>
+      </c>
+      <c r="P10">
+        <v>0.1358269191596247</v>
+      </c>
+      <c r="Q10">
+        <v>1.008262008667334</v>
+      </c>
+      <c r="R10">
+        <v>9.074358078006002</v>
+      </c>
+      <c r="S10">
+        <v>0.004208716777819459</v>
+      </c>
+      <c r="T10">
+        <v>0.004208716777819459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.04682332626218</v>
-      </c>
-      <c r="H10">
-        <v>1.04682332626218</v>
-      </c>
-      <c r="I10">
-        <v>0.2305196514521462</v>
-      </c>
-      <c r="J10">
-        <v>0.2305196514521462</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.91308957483977</v>
-      </c>
-      <c r="N10">
-        <v>5.91308957483977</v>
-      </c>
-      <c r="O10">
-        <v>0.1354420096268765</v>
-      </c>
-      <c r="P10">
-        <v>0.1354420096268765</v>
-      </c>
-      <c r="Q10">
-        <v>6.189960097219988</v>
-      </c>
-      <c r="R10">
-        <v>6.189960097219988</v>
-      </c>
-      <c r="S10">
-        <v>0.0312220448511658</v>
-      </c>
-      <c r="T10">
-        <v>0.0312220448511658</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.469592</v>
+      </c>
+      <c r="I11">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J11">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.831493666666667</v>
+      </c>
+      <c r="N11">
+        <v>5.494481</v>
+      </c>
+      <c r="O11">
+        <v>0.04079247358478674</v>
+      </c>
+      <c r="P11">
+        <v>0.04079247358478674</v>
+      </c>
+      <c r="Q11">
+        <v>2.118178591305778</v>
+      </c>
+      <c r="R11">
+        <v>19.063607321752</v>
+      </c>
+      <c r="S11">
+        <v>0.008841763052670938</v>
+      </c>
+      <c r="T11">
+        <v>0.008841763052670938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.469592</v>
+      </c>
+      <c r="I12">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J12">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>36.96800500000001</v>
+      </c>
+      <c r="N12">
+        <v>110.904015</v>
+      </c>
+      <c r="O12">
+        <v>0.8233806072555885</v>
+      </c>
+      <c r="P12">
+        <v>0.8233806072555884</v>
+      </c>
+      <c r="Q12">
+        <v>42.75463146798667</v>
+      </c>
+      <c r="R12">
+        <v>384.7916832118801</v>
+      </c>
+      <c r="S12">
+        <v>0.178467633652726</v>
+      </c>
+      <c r="T12">
+        <v>0.178467633652726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.469592</v>
+      </c>
+      <c r="I13">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J13">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.098334333333334</v>
+      </c>
+      <c r="N13">
+        <v>18.295003</v>
+      </c>
+      <c r="O13">
+        <v>0.1358269191596248</v>
+      </c>
+      <c r="P13">
+        <v>0.1358269191596247</v>
+      </c>
+      <c r="Q13">
+        <v>7.052910672086222</v>
+      </c>
+      <c r="R13">
+        <v>63.476196048776</v>
+      </c>
+      <c r="S13">
+        <v>0.02944046609204836</v>
+      </c>
+      <c r="T13">
+        <v>0.02944046609204836</v>
       </c>
     </row>
   </sheetData>
